--- a/AccController/AccController.Web/Content/templates/export/result/ais/TaoMoiNguoiDung.xlsx
+++ b/AccController/AccController.Web/Content/templates/export/result/ais/TaoMoiNguoiDung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\import\ais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\AccController\AccController\AccController.Web\Content\templates\export\result\ais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="NewUser" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">NewUser!$A$3:$H$3</definedName>
+    <definedName name="Entities" comment="{Field:&quot;Entities&quot;}" localSheetId="0">NewUser!$A$3:$K$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Mức ưu tiên</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>{Field:"Role"}</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>{Field:"Id"}</t>
+  </si>
+  <si>
+    <t>kq</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -37340,10 +37352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37355,10 +37367,10 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="66">
+    <row r="2" spans="1:11" ht="66">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -37383,8 +37395,17 @@
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -37409,8 +37430,13 @@
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -37419,6 +37445,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
